--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3209.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3209.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.124008148627806</v>
+        <v>1.798601984977722</v>
       </c>
       <c r="B1">
-        <v>3.06098989796126</v>
+        <v>2.210093021392822</v>
       </c>
       <c r="C1">
-        <v>6.531943876578409</v>
+        <v>2.379677057266235</v>
       </c>
       <c r="D1">
-        <v>2.398495044698397</v>
+        <v>3.098793506622314</v>
       </c>
       <c r="E1">
-        <v>1.441668665850421</v>
+        <v>1.455441355705261</v>
       </c>
     </row>
   </sheetData>
